--- a/Mifos Automation Excels/Client/2709-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DuringAPRAddTR2-DISTR2on15JAN-AccCL01FEB-RunPERon01FEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2709-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DuringAPRAddTR2-DISTR2on15JAN-AccCL01FEB-RunPERon01FEB-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="794" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="794" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="CreateAccountClosures" sheetId="7" r:id="rId3"/>
     <sheet name="RunPeriodicAccrual" sheetId="22" r:id="rId4"/>
     <sheet name="DeleteAccountClosures" sheetId="23" r:id="rId5"/>
+    <sheet name="Transactions" sheetId="24" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Head Office</t>
   </si>
@@ -107,15 +108,9 @@
     <t>disburseloan</t>
   </si>
   <si>
-    <t>verifyrepayment</t>
-  </si>
-  <si>
     <t>EnterAccrualDate</t>
   </si>
   <si>
-    <t>validation.msg.periodicaccrual.execution.failed</t>
-  </si>
-  <si>
     <t>approveAddTranch</t>
   </si>
   <si>
@@ -135,13 +130,49 @@
   </si>
   <si>
     <t>disburseTranch1</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>Accrual</t>
+  </si>
+  <si>
+    <t>Disbursement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +189,22 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -192,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,6 +265,21 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,7 +684,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>14</v>
@@ -630,7 +692,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="9">
         <v>41699</v>
@@ -638,7 +700,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7">
         <v>5000</v>
@@ -701,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,10 +840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +853,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9">
         <v>41670</v>
@@ -803,14 +865,6 @@
       </c>
       <c r="B2" s="8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -830,7 +884,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>14</v>
@@ -838,7 +892,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -846,11 +900,162 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>651</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>41670</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="15">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>650</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>41654</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="18">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>10000</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>649</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>41640</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="18">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
